--- a/Customers.xlsx
+++ b/Customers.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amein\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amein\OneDrive\Desktop\BootCamp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_F25DC773A252ABDACC10485E71DF79805ADE58EF" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A2921CC9-E67C-4D58-AE0C-C13FB9669239}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_F25DC773A252ABDACC10485E71DF79805ADE58EF" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D7A806BB-A498-4674-BC1B-D14178A858B8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,9 +33,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Place</t>
-  </si>
-  <si>
     <t>Issue</t>
   </si>
   <si>
@@ -150,9 +147,6 @@
     <t>11.12.2012</t>
   </si>
   <si>
-    <t>broken display</t>
-  </si>
-  <si>
     <t>not cooling</t>
   </si>
   <si>
@@ -175,13 +169,19 @@
   </si>
   <si>
     <t>broken camera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">broken </t>
+  </si>
+  <si>
+    <t>Address</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,16 +195,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -212,12 +238,104 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,222 +616,227 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="D10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
